--- a/doc/ER/タスク管理表.xlsx
+++ b/doc/ER/タスク管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85568B4D-40BD-43C7-8C99-2B8B970A3A63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BFDB5-DB93-4D8F-86CD-79ED097BA5AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A05579FB-1857-4E7F-A7FC-8D8FBF104B70}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>0524</t>
     <phoneticPr fontId="1"/>
@@ -143,45 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブックマーク表示機能</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料理履歴表示機能</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規料理追加機能</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Top画面実装</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -227,32 +188,155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>動作テスト・修正</t>
+    <t>資料作成</t>
+    <rPh sb="0" eb="4">
+      <t>シリョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
     <rPh sb="0" eb="2">
-      <t>ドウサ</t>
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム献立提案画面実装</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム一週間献立提案画面実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム献立提案追加機能実装</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材から提案画面実装</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイアン</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マージ・修正</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材から提案実装</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旬の食材から提案画面実装</t>
+    <rPh sb="0" eb="1">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ショクザ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旬の食材から提案実装</t>
+    <rPh sb="0" eb="1">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ショクザ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックマーク表示画面実装</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックマーク表示実装</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予備日</t>
+    <rPh sb="0" eb="3">
+      <t>ヨビビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージ・修正・動作テスト</t>
     <rPh sb="4" eb="6">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終チェック・書類作成・予備日</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術サポート</t>
     <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショルイサクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ヨビビ</t>
+      <t>ギジュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +361,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -300,13 +398,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +497,36 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,11 +842,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7579665-5364-4A22-9377-73AC46330099}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -645,145 +852,380 @@
     <col min="2" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
